--- a/messages_with_amountsV2.xlsx
+++ b/messages_with_amountsV2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/messages_with_amountsV2.xlsx
+++ b/messages_with_amountsV2.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +455,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>account number</t>
+          <t>Account Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>transaction id</t>
+          <t>Transaction ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,7 +470,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +480,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>account balance</t>
+          <t>Account Balance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -488,10 +497,8 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2989</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -502,6 +509,9 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" s="2" t="n">
+        <v>43379</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,10 +523,8 @@
         <v>800</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D3" t="n">
+        <v>7747</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -529,6 +537,9 @@
       <c r="I3" t="n">
         <v>3</v>
       </c>
+      <c r="J3" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,10 +551,8 @@
         <v>222</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D4" t="n">
+        <v>7747</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -556,6 +565,9 @@
       <c r="I4" t="n">
         <v>796</v>
       </c>
+      <c r="J4" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,10 +579,8 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D5" t="n">
+        <v>7747</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -585,6 +595,9 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,10 +609,8 @@
         <v>7</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2989</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,6 +627,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -627,10 +641,8 @@
         <v>7</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2989</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -645,6 +657,9 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,6 +685,9 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -695,6 +713,9 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,6 +741,9 @@
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,10 +753,8 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1846</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -745,6 +767,9 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -764,6 +789,9 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" s="2" t="n">
+        <v>43378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -775,10 +803,8 @@
         <v>1000</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D13" t="n">
+        <v>2989</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -795,6 +821,9 @@
       <c r="I13" t="n">
         <v>7</v>
       </c>
+      <c r="J13" s="2" t="n">
+        <v>43377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -806,10 +835,8 @@
         <v>1000</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2989</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -824,6 +851,9 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" s="2" t="n">
+        <v>43377</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -835,10 +865,8 @@
       <c r="C15" t="n">
         <v>1000</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2989</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -849,6 +877,9 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" s="2" t="n">
+        <v>43377</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -860,10 +891,8 @@
         <v>1000</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2989</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -874,6 +903,9 @@
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" s="2" t="n">
+        <v>43377</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -885,10 +917,8 @@
       <c r="C17" t="n">
         <v>1000</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2989</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -905,6 +935,9 @@
       <c r="I17" t="n">
         <v>1007</v>
       </c>
+      <c r="J17" s="2" t="n">
+        <v>43376</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -916,10 +949,8 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2989</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -936,6 +967,9 @@
       <c r="I18" t="n">
         <v>1007</v>
       </c>
+      <c r="J18" s="2" t="n">
+        <v>43376</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -947,10 +981,8 @@
       <c r="C19" t="n">
         <v>1000</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2989</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -967,6 +999,9 @@
       <c r="I19" t="n">
         <v>6</v>
       </c>
+      <c r="J19" s="2" t="n">
+        <v>43376</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -978,10 +1013,8 @@
         <v>1000</v>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2989</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -992,6 +1025,9 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" s="2" t="n">
+        <v>43376</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1001,10 +1037,8 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>241846</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1846</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
@@ -1019,6 +1053,9 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" s="2" t="n">
+        <v>43376</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1030,10 +1067,8 @@
       <c r="C22" t="n">
         <v>83</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D22" t="n">
+        <v>2989</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1046,6 +1081,9 @@
       <c r="I22" t="n">
         <v>6</v>
       </c>
+      <c r="J22" s="2" t="n">
+        <v>43374</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1057,10 +1095,8 @@
         <v>10</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D23" t="n">
+        <v>2989</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1073,6 +1109,9 @@
       <c r="I23" t="n">
         <v>5</v>
       </c>
+      <c r="J23" s="2" t="n">
+        <v>43374</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1084,10 +1123,8 @@
       <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D24" t="n">
+        <v>7747</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1098,6 +1135,9 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" s="2" t="n">
+        <v>43374</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1109,10 +1149,8 @@
         <v>11.35</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1184</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1123,6 +1161,9 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" s="2" t="n">
+        <v>43374</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,10 +1175,8 @@
       <c r="C26" t="n">
         <v>8</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2989</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1154,6 +1193,9 @@
       <c r="I26" t="n">
         <v>15</v>
       </c>
+      <c r="J26" s="2" t="n">
+        <v>43373</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1165,10 +1207,8 @@
         <v>1000</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D27" t="n">
+        <v>7747</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1181,6 +1221,9 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
+      <c r="J27" s="2" t="n">
+        <v>43373</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1192,10 +1235,8 @@
       <c r="C28" t="n">
         <v>1000</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D28" t="n">
+        <v>7747</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1206,6 +1247,9 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" s="2" t="n">
+        <v>43373</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1231,6 +1275,9 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" s="2" t="n">
+        <v>43373</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,10 +1289,8 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2989</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1262,6 +1307,9 @@
       <c r="I30" t="n">
         <v>7</v>
       </c>
+      <c r="J30" s="2" t="n">
+        <v>43372</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1273,10 +1321,8 @@
         <v>130</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D31" t="n">
+        <v>2989</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1291,6 +1337,9 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" s="2" t="n">
+        <v>43370</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1302,10 +1351,8 @@
       <c r="C32" t="n">
         <v>50</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D32" t="n">
+        <v>2989</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1322,6 +1369,9 @@
       <c r="I32" t="n">
         <v>336</v>
       </c>
+      <c r="J32" s="2" t="n">
+        <v>43370</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1333,10 +1383,8 @@
         <v>1500</v>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D33" t="n">
+        <v>2989</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -1347,6 +1395,9 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1358,10 +1409,8 @@
         <v>2005.9</v>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D34" t="n">
+        <v>2989</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1378,6 +1427,9 @@
       <c r="I34" t="n">
         <v>1686</v>
       </c>
+      <c r="J34" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1389,10 +1441,8 @@
         <v>2000</v>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D35" t="n">
+        <v>2989</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1407,6 +1457,9 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1418,10 +1471,8 @@
       <c r="C36" t="n">
         <v>3690</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D36" t="n">
+        <v>2989</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1438,6 +1489,9 @@
       <c r="I36" t="n">
         <v>3692</v>
       </c>
+      <c r="J36" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1449,10 +1503,8 @@
         <v>500</v>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D37" t="n">
+        <v>7747</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -1465,6 +1517,9 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
+      <c r="J37" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1476,10 +1531,8 @@
       <c r="C38" t="n">
         <v>500</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D38" t="n">
+        <v>7747</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1494,6 +1547,9 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1505,10 +1561,8 @@
         <v>500</v>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D39" t="n">
+        <v>2989</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1525,6 +1579,9 @@
       <c r="I39" t="n">
         <v>2</v>
       </c>
+      <c r="J39" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1536,10 +1593,8 @@
         <v>500</v>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D40" t="n">
+        <v>2989</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1554,6 +1609,9 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1565,10 +1623,8 @@
       <c r="C41" t="n">
         <v>500</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D41" t="n">
+        <v>2989</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1585,6 +1641,9 @@
       <c r="I41" t="n">
         <v>502</v>
       </c>
+      <c r="J41" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1596,10 +1655,8 @@
         <v>10</v>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D42" t="n">
+        <v>2989</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1616,6 +1673,9 @@
       <c r="I42" t="n">
         <v>2</v>
       </c>
+      <c r="J42" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1627,10 +1687,8 @@
         <v>10</v>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D43" t="n">
+        <v>2989</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1645,6 +1703,9 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1656,10 +1717,8 @@
       <c r="C44" t="n">
         <v>5</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D44" t="n">
+        <v>2989</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1676,6 +1735,9 @@
       <c r="I44" t="n">
         <v>12</v>
       </c>
+      <c r="J44" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1687,10 +1749,8 @@
         <v>5</v>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D45" t="n">
+        <v>7747</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1705,6 +1765,9 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1716,10 +1779,8 @@
         <v>5</v>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D46" t="n">
+        <v>7747</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -1732,6 +1793,9 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
+      <c r="J46" s="2" t="n">
+        <v>43369</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1743,10 +1807,8 @@
       <c r="C47" t="n">
         <v>4184</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D47" t="n">
+        <v>1846</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -1757,6 +1819,9 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" s="2" t="n">
+        <v>43368</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1768,10 +1833,8 @@
         <v>4184</v>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D48" t="n">
+        <v>2989</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1788,6 +1851,9 @@
       <c r="I48" t="n">
         <v>7</v>
       </c>
+      <c r="J48" s="2" t="n">
+        <v>43367</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1799,10 +1865,8 @@
         <v>10</v>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D49" t="n">
+        <v>2989</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -1815,6 +1879,9 @@
       <c r="I49" t="n">
         <v>7</v>
       </c>
+      <c r="J49" s="2" t="n">
+        <v>43367</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1826,10 +1893,8 @@
         <v>400</v>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D50" t="n">
+        <v>2989</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -1840,6 +1905,9 @@
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" s="2" t="n">
+        <v>43365</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1851,10 +1919,8 @@
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D51" t="n">
+        <v>2989</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1871,6 +1937,9 @@
       <c r="I51" t="n">
         <v>2917</v>
       </c>
+      <c r="J51" s="2" t="n">
+        <v>43365</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1882,10 +1951,8 @@
         <v>2500</v>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D52" t="n">
+        <v>2989</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
@@ -1896,6 +1963,9 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" s="2" t="n">
+        <v>43365</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1907,10 +1977,8 @@
       <c r="C53" t="n">
         <v>5000</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D53" t="n">
+        <v>2989</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1926,6 +1994,9 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>2917</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>43365</v>
       </c>
     </row>
     <row r="54">
@@ -1948,6 +2019,9 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" s="2" t="n">
+        <v>43365</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1973,6 +2047,9 @@
       <c r="I55" t="n">
         <v>-2083</v>
       </c>
+      <c r="J55" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1998,6 +2075,9 @@
       <c r="I56" t="n">
         <v>-2083</v>
       </c>
+      <c r="J56" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2009,10 +2089,8 @@
         <v>400</v>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D57" t="n">
+        <v>2989</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2029,6 +2107,9 @@
       <c r="I57" t="n">
         <v>2100</v>
       </c>
+      <c r="J57" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2040,10 +2121,8 @@
         <v>400</v>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D58" t="n">
+        <v>2989</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2060,6 +2139,9 @@
       <c r="I58" t="n">
         <v>2100</v>
       </c>
+      <c r="J58" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2071,10 +2153,8 @@
       <c r="C59" t="n">
         <v>400</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D59" t="n">
+        <v>2989</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2091,6 +2171,9 @@
       <c r="I59" t="n">
         <v>2100</v>
       </c>
+      <c r="J59" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2102,10 +2185,8 @@
         <v>400</v>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D60" t="n">
+        <v>2989</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2120,6 +2201,9 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2131,10 +2215,8 @@
       <c r="C61" t="n">
         <v>400</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D61" t="n">
+        <v>2989</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2151,6 +2233,9 @@
       <c r="I61" t="n">
         <v>2500</v>
       </c>
+      <c r="J61" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2162,10 +2247,8 @@
         <v>1505.9</v>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D62" t="n">
+        <v>2989</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2182,6 +2265,9 @@
       <c r="I62" t="n">
         <v>2500</v>
       </c>
+      <c r="J62" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2193,10 +2279,8 @@
         <v>1500</v>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D63" t="n">
+        <v>2989</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2211,6 +2295,9 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" s="2" t="n">
+        <v>43364</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2222,10 +2309,8 @@
         <v>300</v>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D64" t="n">
+        <v>2989</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2240,6 +2325,9 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" s="2" t="n">
+        <v>43363</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2251,10 +2339,8 @@
         <v>700</v>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D65" t="n">
+        <v>2989</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -2265,6 +2351,9 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" s="2" t="n">
+        <v>43363</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2276,10 +2365,8 @@
         <v>100</v>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D66" t="n">
+        <v>2989</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -2290,6 +2377,9 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" s="2" t="n">
+        <v>43363</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2301,10 +2391,8 @@
         <v>110</v>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D67" t="n">
+        <v>2989</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2319,6 +2407,9 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" s="2" t="n">
+        <v>43363</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2330,10 +2421,8 @@
         <v>1600</v>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D68" t="n">
+        <v>2989</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2348,6 +2437,9 @@
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" s="2" t="n">
+        <v>43362</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2359,10 +2451,8 @@
       <c r="C69" t="n">
         <v>6700</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D69" t="n">
+        <v>2989</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2379,6 +2469,9 @@
       <c r="I69" t="n">
         <v>6816</v>
       </c>
+      <c r="J69" s="2" t="n">
+        <v>43362</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2390,10 +2483,8 @@
         <v>1200</v>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D70" t="n">
+        <v>2989</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2408,6 +2499,9 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" s="2" t="n">
+        <v>43362</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2419,10 +2513,8 @@
       <c r="C71" t="n">
         <v>1600</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D71" t="n">
+        <v>2989</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2439,6 +2531,9 @@
       <c r="I71" t="n">
         <v>1316</v>
       </c>
+      <c r="J71" s="2" t="n">
+        <v>43362</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2450,10 +2545,8 @@
         <v>10</v>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D72" t="n">
+        <v>7747</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -2466,6 +2559,9 @@
       <c r="I72" t="n">
         <v>5</v>
       </c>
+      <c r="J72" s="2" t="n">
+        <v>43359</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2477,10 +2573,8 @@
         <v>271.07</v>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D73" t="n">
+        <v>2989</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -2493,6 +2587,9 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
+      <c r="J73" s="2" t="n">
+        <v>43358</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2504,10 +2601,8 @@
         <v>48.79</v>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D74" t="n">
+        <v>2989</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
@@ -2520,6 +2615,9 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
+      <c r="J74" s="2" t="n">
+        <v>43358</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2531,10 +2629,8 @@
         <v>400</v>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D75" t="n">
+        <v>7747</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -2547,6 +2643,9 @@
       <c r="I75" t="n">
         <v>15</v>
       </c>
+      <c r="J75" s="2" t="n">
+        <v>43356</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2558,10 +2657,8 @@
       <c r="C76" t="n">
         <v>110</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D76" t="n">
+        <v>7747</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
@@ -2572,6 +2669,9 @@
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" s="2" t="n">
+        <v>43356</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2583,10 +2683,8 @@
         <v>110</v>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D77" t="n">
+        <v>2989</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2603,6 +2701,9 @@
       <c r="I77" t="n">
         <v>14</v>
       </c>
+      <c r="J77" s="2" t="n">
+        <v>43356</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2628,6 +2729,9 @@
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" s="2" t="n">
+        <v>43356</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2639,10 +2743,8 @@
         <v>305</v>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D79" t="n">
+        <v>7747</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -2655,6 +2757,9 @@
       <c r="I79" t="n">
         <v>305</v>
       </c>
+      <c r="J79" s="2" t="n">
+        <v>43355</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2666,10 +2771,8 @@
         <v>100</v>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D80" t="n">
+        <v>2989</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2686,6 +2789,9 @@
       <c r="I80" t="n">
         <v>124</v>
       </c>
+      <c r="J80" s="2" t="n">
+        <v>43355</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2697,10 +2803,8 @@
       <c r="C81" t="n">
         <v>100</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D81" t="n">
+        <v>1184</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2715,6 +2819,9 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" s="2" t="n">
+        <v>43355</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2726,10 +2833,8 @@
         <v>100</v>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D82" t="n">
+        <v>2989</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2744,6 +2849,9 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" s="2" t="n">
+        <v>43355</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2755,10 +2863,8 @@
       <c r="C83" t="n">
         <v>4184</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D83" t="n">
+        <v>1846</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -2769,6 +2875,9 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" s="2" t="n">
+        <v>43354</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2780,10 +2889,8 @@
       <c r="C84" t="n">
         <v>8.25</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D84" t="n">
+        <v>7747</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
@@ -2794,6 +2901,9 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" s="2" t="n">
+        <v>43354</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2805,10 +2915,8 @@
         <v>4184</v>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D85" t="n">
+        <v>2989</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2825,6 +2933,9 @@
       <c r="I85" t="n">
         <v>224</v>
       </c>
+      <c r="J85" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2836,10 +2947,8 @@
         <v>1500</v>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D86" t="n">
+        <v>2989</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
@@ -2850,6 +2959,9 @@
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2861,10 +2973,8 @@
         <v>1805.9</v>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D87" t="n">
+        <v>2989</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2881,6 +2991,9 @@
       <c r="I87" t="n">
         <v>1724</v>
       </c>
+      <c r="J87" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2892,10 +3005,8 @@
         <v>1800</v>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D88" t="n">
+        <v>2989</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2910,6 +3021,9 @@
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2921,10 +3035,8 @@
         <v>1500</v>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D89" t="n">
+        <v>2989</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -2935,6 +3047,9 @@
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2946,10 +3061,8 @@
         <v>408</v>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D90" t="n">
+        <v>2989</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2964,6 +3077,9 @@
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2975,10 +3091,8 @@
         <v>120</v>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D91" t="n">
+        <v>2989</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2995,6 +3109,9 @@
       <c r="I91" t="n">
         <v>5438</v>
       </c>
+      <c r="J91" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3006,10 +3123,8 @@
         <v>120</v>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D92" t="n">
+        <v>2989</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3024,6 +3139,9 @@
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" s="2" t="n">
+        <v>43353</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3035,10 +3153,8 @@
         <v>400</v>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D93" t="n">
+        <v>7747</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
@@ -3051,6 +3167,9 @@
       <c r="I93" t="n">
         <v>602</v>
       </c>
+      <c r="J93" s="2" t="n">
+        <v>43352</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3062,10 +3181,8 @@
         <v>1500</v>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D94" t="n">
+        <v>2989</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3080,6 +3197,9 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" s="2" t="n">
+        <v>43352</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3091,10 +3211,8 @@
       <c r="C95" t="n">
         <v>1370</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D95" t="n">
+        <v>2989</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3111,6 +3229,9 @@
       <c r="I95" t="n">
         <v>7058</v>
       </c>
+      <c r="J95" s="2" t="n">
+        <v>43351</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3122,10 +3243,8 @@
         <v>399</v>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D96" t="n">
+        <v>2989</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
@@ -3138,6 +3257,9 @@
       <c r="I96" t="n">
         <v>5688</v>
       </c>
+      <c r="J96" s="2" t="n">
+        <v>43351</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3149,10 +3271,8 @@
       <c r="C97" t="n">
         <v>6000</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D97" t="n">
+        <v>2989</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -3163,6 +3283,9 @@
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" s="2" t="n">
+        <v>43351</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3174,10 +3297,8 @@
         <v>2405.9</v>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D98" t="n">
+        <v>2989</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3194,6 +3315,9 @@
       <c r="I98" t="n">
         <v>87</v>
       </c>
+      <c r="J98" s="2" t="n">
+        <v>43350</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3205,10 +3329,8 @@
         <v>2400</v>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D99" t="n">
+        <v>2989</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3223,6 +3345,9 @@
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" s="2" t="n">
+        <v>43350</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3234,10 +3359,8 @@
         <v>1755.9</v>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D100" t="n">
+        <v>2989</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
@@ -3250,6 +3373,9 @@
       <c r="I100" t="n">
         <v>2493</v>
       </c>
+      <c r="J100" s="2" t="n">
+        <v>43350</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3261,10 +3387,8 @@
         <v>1750</v>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D101" t="n">
+        <v>2989</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3279,6 +3403,9 @@
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" s="2" t="n">
+        <v>43350</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3290,10 +3417,8 @@
       <c r="C102" t="n">
         <v>8682</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D102" t="n">
+        <v>2989</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3310,6 +3435,9 @@
       <c r="I102" t="n">
         <v>4249</v>
       </c>
+      <c r="J102" s="2" t="n">
+        <v>43350</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3321,10 +3449,8 @@
       <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D103" t="n">
+        <v>7747</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
@@ -3335,6 +3461,9 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" s="2" t="n">
+        <v>43348</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3360,6 +3489,9 @@
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" s="2" t="n">
+        <v>43348</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3369,10 +3501,8 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D105" t="n">
+        <v>1846</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
@@ -3385,6 +3515,9 @@
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" s="2" t="n">
+        <v>43348</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3396,10 +3529,8 @@
         <v>1100</v>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D106" t="n">
+        <v>7747</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
@@ -3412,6 +3543,9 @@
       <c r="I106" t="n">
         <v>1001</v>
       </c>
+      <c r="J106" s="2" t="n">
+        <v>43347</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3423,10 +3557,8 @@
       <c r="C107" t="n">
         <v>2100</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D107" t="n">
+        <v>7747</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -3437,6 +3569,9 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" s="2" t="n">
+        <v>43347</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3462,6 +3597,9 @@
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" s="2" t="n">
+        <v>43347</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3483,6 +3621,9 @@
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" s="2" t="n">
+        <v>43347</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3492,10 +3633,8 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>241846</t>
-        </is>
+      <c r="D110" t="n">
+        <v>1846</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
@@ -3510,6 +3649,9 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" s="2" t="n">
+        <v>43346</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3521,10 +3663,8 @@
         <v>4.65</v>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D111" t="n">
+        <v>1184</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -3535,6 +3675,9 @@
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" s="2" t="n">
+        <v>43344</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3546,10 +3689,8 @@
         <v>4.65</v>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D112" t="n">
+        <v>1184</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -3560,6 +3701,9 @@
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" s="2" t="n">
+        <v>43344</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3571,10 +3715,8 @@
         <v>500</v>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D113" t="n">
+        <v>7747</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -3586,6 +3728,9 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
         <v>1</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>43343</v>
       </c>
     </row>
     <row r="114">
@@ -3608,6 +3753,9 @@
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" s="2" t="n">
+        <v>43341</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3633,6 +3781,9 @@
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" s="2" t="n">
+        <v>43341</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3644,10 +3795,8 @@
         <v>11400</v>
       </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D116" t="n">
+        <v>7747</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3664,6 +3813,9 @@
       <c r="I116" t="n">
         <v>501</v>
       </c>
+      <c r="J116" s="2" t="n">
+        <v>43341</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3675,10 +3827,8 @@
       <c r="C117" t="n">
         <v>29</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D117" t="n">
+        <v>7747</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -3689,6 +3839,9 @@
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" s="2" t="n">
+        <v>43340</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3714,6 +3867,9 @@
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" s="2" t="n">
+        <v>43340</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3725,10 +3881,8 @@
       <c r="C119" t="n">
         <v>11868</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D119" t="n">
+        <v>7747</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -3739,6 +3893,9 @@
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" s="2" t="n">
+        <v>43340</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3764,6 +3921,9 @@
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" s="2" t="n">
+        <v>43340</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3783,6 +3943,9 @@
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" s="2" t="n">
+        <v>43340</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3794,10 +3957,8 @@
         <v>59</v>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D122" t="n">
+        <v>7747</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -3808,6 +3969,9 @@
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" s="2" t="n">
+        <v>43339</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3833,6 +3997,9 @@
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" s="2" t="n">
+        <v>43339</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3844,10 +4011,8 @@
         <v>60</v>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D124" t="n">
+        <v>7747</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -3860,6 +4025,9 @@
       <c r="I124" t="n">
         <v>4</v>
       </c>
+      <c r="J124" s="2" t="n">
+        <v>43339</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3871,10 +4039,8 @@
         <v>1800</v>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D125" t="n">
+        <v>7747</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -3887,6 +4053,9 @@
       <c r="I125" t="n">
         <v>64</v>
       </c>
+      <c r="J125" s="2" t="n">
+        <v>43339</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3898,10 +4067,8 @@
       <c r="C126" t="n">
         <v>1923</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D126" t="n">
+        <v>7747</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3916,6 +4083,9 @@
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" s="2" t="n">
+        <v>43339</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3927,10 +4097,8 @@
         <v>1900</v>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D127" t="n">
+        <v>1184</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -3943,6 +4111,9 @@
       <c r="I127" t="n">
         <v>100</v>
       </c>
+      <c r="J127" s="2" t="n">
+        <v>43338</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3968,6 +4139,9 @@
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" s="2" t="n">
+        <v>43338</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3989,6 +4163,9 @@
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" s="2" t="n">
+        <v>43336</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4000,10 +4177,8 @@
       <c r="C130" t="n">
         <v>11868</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D130" t="n">
+        <v>7747</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -4014,6 +4189,9 @@
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" s="2" t="n">
+        <v>43335</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4025,10 +4203,8 @@
         <v>11868</v>
       </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>147747</t>
-        </is>
+      <c r="D131" t="n">
+        <v>7747</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -4039,6 +4215,9 @@
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" s="2" t="n">
+        <v>43335</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4060,6 +4239,9 @@
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" s="2" t="n">
+        <v>43335</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4081,6 +4263,9 @@
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" s="2" t="n">
+        <v>43333</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4100,6 +4285,9 @@
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" s="2" t="n">
+        <v>43333</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4111,10 +4299,8 @@
       <c r="C135" t="n">
         <v>75</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D135" t="n">
+        <v>2989</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
@@ -4126,6 +4312,9 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
         <v>0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>43328</v>
       </c>
     </row>
     <row r="136">
@@ -4146,6 +4335,9 @@
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" s="2" t="n">
+        <v>43326</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4167,6 +4359,9 @@
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" s="2" t="n">
+        <v>43325</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4186,6 +4381,9 @@
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" s="2" t="n">
+        <v>43322</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4197,10 +4395,8 @@
         <v>238</v>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D139" t="n">
+        <v>2989</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4217,6 +4413,9 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" s="2" t="n">
+        <v>43322</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4228,10 +4427,8 @@
         <v>238</v>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D140" t="n">
+        <v>2989</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4246,6 +4443,9 @@
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" s="2" t="n">
+        <v>43322</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4257,10 +4457,8 @@
         <v>182</v>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D141" t="n">
+        <v>2989</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4275,6 +4473,9 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4286,10 +4487,8 @@
         <v>100</v>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D142" t="n">
+        <v>2989</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4304,6 +4503,9 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4313,10 +4515,8 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D143" t="n">
+        <v>1846</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -4327,6 +4527,9 @@
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4338,10 +4541,8 @@
         <v>285</v>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D144" t="n">
+        <v>2989</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4356,6 +4557,9 @@
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4367,10 +4571,8 @@
         <v>149</v>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D145" t="n">
+        <v>2989</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
@@ -4383,6 +4585,9 @@
       <c r="I145" t="n">
         <v>805</v>
       </c>
+      <c r="J145" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4394,10 +4599,8 @@
         <v>50</v>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D146" t="n">
+        <v>2989</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
@@ -4410,6 +4613,9 @@
       <c r="I146" t="n">
         <v>954</v>
       </c>
+      <c r="J146" s="2" t="n">
+        <v>43321</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4421,10 +4627,8 @@
       <c r="C147" t="n">
         <v>1000</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D147" t="n">
+        <v>2989</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4441,6 +4645,9 @@
       <c r="I147" t="n">
         <v>1004</v>
       </c>
+      <c r="J147" s="2" t="n">
+        <v>43320</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4452,10 +4659,8 @@
         <v>13000</v>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D148" t="n">
+        <v>2989</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4472,6 +4677,9 @@
       <c r="I148" t="n">
         <v>4</v>
       </c>
+      <c r="J148" s="2" t="n">
+        <v>43320</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4483,10 +4691,8 @@
       <c r="C149" t="n">
         <v>1220</v>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D149" t="n">
+        <v>2989</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4503,6 +4709,9 @@
       <c r="I149" t="n">
         <v>13004</v>
       </c>
+      <c r="J149" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4514,10 +4723,8 @@
         <v>1605.9</v>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D150" t="n">
+        <v>2989</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
@@ -4530,6 +4737,9 @@
       <c r="I150" t="n">
         <v>11784</v>
       </c>
+      <c r="J150" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4541,10 +4751,8 @@
       <c r="C151" t="n">
         <v>10805.9</v>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D151" t="n">
+        <v>2989</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4561,6 +4769,9 @@
       <c r="I151" t="n">
         <v>11784</v>
       </c>
+      <c r="J151" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4572,10 +4783,8 @@
         <v>10805.9</v>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D152" t="n">
+        <v>2989</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4592,6 +4801,9 @@
       <c r="I152" t="n">
         <v>11784</v>
       </c>
+      <c r="J152" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4603,10 +4815,8 @@
         <v>1600</v>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D153" t="n">
+        <v>2989</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4621,6 +4831,9 @@
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4632,10 +4845,8 @@
       <c r="C154" t="n">
         <v>13383</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D154" t="n">
+        <v>2989</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4651,6 +4862,9 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>13390</v>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>43319</v>
       </c>
     </row>
     <row r="155">
@@ -4671,6 +4885,9 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" s="2" t="n">
+        <v>43319</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4680,10 +4897,8 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D156" t="n">
+        <v>2989</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
@@ -4698,6 +4913,9 @@
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" s="2" t="n">
+        <v>43315</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4717,6 +4935,9 @@
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
+      <c r="J157" s="2" t="n">
+        <v>43315</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4728,10 +4949,8 @@
         <v>1000</v>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D158" t="n">
+        <v>2989</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -4742,6 +4961,9 @@
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" s="2" t="n">
+        <v>43314</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4753,10 +4975,8 @@
       <c r="C159" t="n">
         <v>1000</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D159" t="n">
+        <v>2989</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4772,6 +4992,9 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
         <v>1007</v>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>43313</v>
       </c>
     </row>
     <row r="160">
@@ -4792,6 +5015,9 @@
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" s="2" t="n">
+        <v>43312</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4803,10 +5029,8 @@
         <v>3090</v>
       </c>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D161" t="n">
+        <v>2989</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4821,6 +5045,9 @@
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4832,10 +5059,8 @@
         <v>3095.9</v>
       </c>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D162" t="n">
+        <v>2989</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4852,6 +5077,9 @@
       <c r="I162" t="n">
         <v>7</v>
       </c>
+      <c r="J162" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4863,10 +5091,8 @@
       <c r="C163" t="n">
         <v>3000</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D163" t="n">
+        <v>2989</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4883,6 +5109,9 @@
       <c r="I163" t="n">
         <v>3103</v>
       </c>
+      <c r="J163" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4894,10 +5123,8 @@
         <v>3000</v>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D164" t="n">
+        <v>2989</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -4908,6 +5135,9 @@
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4919,10 +5149,8 @@
         <v>3000</v>
       </c>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D165" t="n">
+        <v>2989</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
@@ -4933,6 +5161,9 @@
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4944,10 +5175,8 @@
       <c r="C166" t="n">
         <v>3000</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D166" t="n">
+        <v>2989</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -4958,6 +5187,9 @@
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" s="2" t="n">
+        <v>43308</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4969,10 +5201,8 @@
       <c r="C167" t="n">
         <v>4184</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D167" t="n">
+        <v>1846</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -4983,6 +5213,9 @@
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" s="2" t="n">
+        <v>43307</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4994,10 +5227,8 @@
         <v>4184</v>
       </c>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D168" t="n">
+        <v>2989</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5014,6 +5245,9 @@
       <c r="I168" t="n">
         <v>103</v>
       </c>
+      <c r="J168" s="2" t="n">
+        <v>43306</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5025,10 +5259,8 @@
         <v>1670</v>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D169" t="n">
+        <v>2989</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5043,6 +5275,9 @@
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" s="2" t="n">
+        <v>43306</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5054,10 +5289,8 @@
         <v>1675.9</v>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D170" t="n">
+        <v>2989</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5074,6 +5307,9 @@
       <c r="I170" t="n">
         <v>103</v>
       </c>
+      <c r="J170" s="2" t="n">
+        <v>43306</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5085,10 +5321,8 @@
       <c r="C171" t="n">
         <v>5900</v>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D171" t="n">
+        <v>2989</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5104,6 +5338,9 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
         <v>1779</v>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>43306</v>
       </c>
     </row>
     <row r="172">
@@ -5124,6 +5361,9 @@
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" s="2" t="n">
+        <v>43305</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5143,6 +5383,9 @@
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" s="2" t="n">
+        <v>43304</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5162,6 +5405,9 @@
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" s="2" t="n">
+        <v>43303</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5181,6 +5427,9 @@
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" s="2" t="n">
+        <v>43302</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5203,6 +5452,9 @@
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" s="2" t="n">
+        <v>43297</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5214,10 +5466,8 @@
       <c r="C177" t="n">
         <v>50</v>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D177" t="n">
+        <v>2989</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -5230,6 +5480,9 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" s="2" t="n">
+        <v>43292</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5241,10 +5494,8 @@
       <c r="C178" t="n">
         <v>50</v>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D178" t="n">
+        <v>2989</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -5257,6 +5508,9 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
+      <c r="J178" s="2" t="n">
+        <v>43292</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5268,10 +5522,8 @@
         <v>900</v>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D179" t="n">
+        <v>2989</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5286,6 +5538,9 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" s="2" t="n">
+        <v>43291</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5297,10 +5552,8 @@
         <v>222</v>
       </c>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D180" t="n">
+        <v>2989</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5315,6 +5568,9 @@
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5326,10 +5582,8 @@
         <v>20</v>
       </c>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D181" t="n">
+        <v>2989</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -5342,6 +5596,9 @@
       <c r="I181" t="n">
         <v>1140</v>
       </c>
+      <c r="J181" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5353,10 +5610,8 @@
       <c r="C182" t="n">
         <v>50</v>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D182" t="n">
+        <v>2989</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -5369,6 +5624,9 @@
       <c r="I182" t="n">
         <v>1160</v>
       </c>
+      <c r="J182" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5378,10 +5636,8 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D183" t="n">
+        <v>1846</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -5392,6 +5648,9 @@
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
+      <c r="J183" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5403,10 +5662,8 @@
         <v>50</v>
       </c>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D184" t="n">
+        <v>2989</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5423,6 +5680,9 @@
       <c r="I184" t="n">
         <v>1110</v>
       </c>
+      <c r="J184" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5434,10 +5694,8 @@
       <c r="C185" t="n">
         <v>50</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D185" t="n">
+        <v>1184</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5452,6 +5710,9 @@
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5463,10 +5724,8 @@
         <v>50</v>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D186" t="n">
+        <v>2989</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5481,6 +5740,9 @@
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5492,10 +5754,8 @@
         <v>20</v>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D187" t="n">
+        <v>2989</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -5508,6 +5768,9 @@
       <c r="I187" t="n">
         <v>1160</v>
       </c>
+      <c r="J187" s="2" t="n">
+        <v>43290</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5519,10 +5782,8 @@
         <v>43</v>
       </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D188" t="n">
+        <v>2989</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
@@ -5535,6 +5796,9 @@
       <c r="I188" t="n">
         <v>1180</v>
       </c>
+      <c r="J188" s="2" t="n">
+        <v>43289</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5546,10 +5810,8 @@
         <v>43</v>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D189" t="n">
+        <v>2989</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
@@ -5562,6 +5824,9 @@
       <c r="I189" t="n">
         <v>1223</v>
       </c>
+      <c r="J189" s="2" t="n">
+        <v>43289</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5573,10 +5838,8 @@
         <v>1000</v>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D190" t="n">
+        <v>2989</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
@@ -5587,6 +5850,9 @@
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
+      <c r="J190" s="2" t="n">
+        <v>43289</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5598,10 +5864,8 @@
         <v>290</v>
       </c>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D191" t="n">
+        <v>2989</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5616,6 +5880,9 @@
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" s="2" t="n">
+        <v>43289</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5627,10 +5894,8 @@
       <c r="C192" t="n">
         <v>1203</v>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D192" t="n">
+        <v>2989</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5647,6 +5912,9 @@
       <c r="I192" t="n">
         <v>2556</v>
       </c>
+      <c r="J192" s="2" t="n">
+        <v>43289</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5658,10 +5926,8 @@
         <v>499</v>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D193" t="n">
+        <v>2989</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -5674,6 +5940,9 @@
       <c r="I193" t="n">
         <v>1572</v>
       </c>
+      <c r="J193" s="2" t="n">
+        <v>43288</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5685,10 +5954,8 @@
         <v>1555.9</v>
       </c>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D194" t="n">
+        <v>2989</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
@@ -5701,6 +5968,9 @@
       <c r="I194" t="n">
         <v>2071</v>
       </c>
+      <c r="J194" s="2" t="n">
+        <v>43288</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5712,10 +5982,8 @@
         <v>1550</v>
       </c>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D195" t="n">
+        <v>2989</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5730,6 +5998,9 @@
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" s="2" t="n">
+        <v>43288</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5741,10 +6012,8 @@
       <c r="C196" t="n">
         <v>3331</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D196" t="n">
+        <v>2989</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5761,6 +6030,9 @@
       <c r="I196" t="n">
         <v>3627</v>
       </c>
+      <c r="J196" s="2" t="n">
+        <v>43288</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5772,10 +6044,8 @@
         <v>50</v>
       </c>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D197" t="n">
+        <v>2989</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5790,6 +6060,9 @@
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" s="2" t="n">
+        <v>43286</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5799,10 +6072,8 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D198" t="n">
+        <v>1846</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
@@ -5815,6 +6086,9 @@
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" s="2" t="n">
+        <v>43286</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5826,10 +6100,8 @@
       <c r="C199" t="n">
         <v>50</v>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D199" t="n">
+        <v>2989</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -5842,6 +6114,9 @@
       <c r="I199" t="n">
         <v>346</v>
       </c>
+      <c r="J199" s="2" t="n">
+        <v>43285</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5853,10 +6128,8 @@
       <c r="C200" t="n">
         <v>50</v>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D200" t="n">
+        <v>2989</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -5869,6 +6142,9 @@
       <c r="I200" t="n">
         <v>246</v>
       </c>
+      <c r="J200" s="2" t="n">
+        <v>43285</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5880,10 +6156,8 @@
         <v>50</v>
       </c>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D201" t="n">
+        <v>2989</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5898,6 +6172,9 @@
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" s="2" t="n">
+        <v>43284</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5909,10 +6186,8 @@
       <c r="C202" t="n">
         <v>200</v>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D202" t="n">
+        <v>2989</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5929,6 +6204,9 @@
       <c r="I202" t="n">
         <v>246</v>
       </c>
+      <c r="J202" s="2" t="n">
+        <v>43284</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5940,10 +6218,8 @@
         <v>50</v>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D203" t="n">
+        <v>2989</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5958,6 +6234,9 @@
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
+      <c r="J203" s="2" t="n">
+        <v>43283</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5983,6 +6262,9 @@
       <c r="I204" t="n">
         <v>96</v>
       </c>
+      <c r="J204" s="2" t="n">
+        <v>43283</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6008,6 +6290,9 @@
       <c r="I205" t="n">
         <v>96</v>
       </c>
+      <c r="J205" s="2" t="n">
+        <v>43283</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6033,6 +6318,9 @@
       <c r="I206" t="n">
         <v>96</v>
       </c>
+      <c r="J206" s="2" t="n">
+        <v>43283</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6044,10 +6332,8 @@
         <v>17.7</v>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D207" t="n">
+        <v>1184</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -6058,6 +6344,9 @@
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
+      <c r="J207" s="2" t="n">
+        <v>43282</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6069,10 +6358,8 @@
       <c r="C208" t="n">
         <v>30</v>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D208" t="n">
+        <v>2989</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6089,6 +6376,9 @@
       <c r="I208" t="n">
         <v>96</v>
       </c>
+      <c r="J208" s="2" t="n">
+        <v>43282</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6100,10 +6390,8 @@
         <v>50</v>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D209" t="n">
+        <v>2989</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6118,6 +6406,9 @@
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
+      <c r="J209" s="2" t="n">
+        <v>43281</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6129,10 +6420,8 @@
         <v>50</v>
       </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D210" t="n">
+        <v>2989</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6147,6 +6436,9 @@
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
+      <c r="J210" s="2" t="n">
+        <v>43278</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6158,10 +6450,8 @@
         <v>50</v>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D211" t="n">
+        <v>2989</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6176,6 +6466,9 @@
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
+      <c r="J211" s="2" t="n">
+        <v>43278</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6187,10 +6480,8 @@
         <v>148</v>
       </c>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D212" t="n">
+        <v>2989</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6205,6 +6496,9 @@
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
+      <c r="J212" s="2" t="n">
+        <v>43276</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6216,10 +6510,8 @@
         <v>1749</v>
       </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D213" t="n">
+        <v>2989</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -6234,6 +6526,9 @@
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
+      <c r="J213" s="2" t="n">
+        <v>43276</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6245,10 +6540,8 @@
         <v>43</v>
       </c>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D214" t="n">
+        <v>2989</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
@@ -6261,6 +6554,9 @@
       <c r="I214" t="n">
         <v>163</v>
       </c>
+      <c r="J214" s="2" t="n">
+        <v>43275</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6272,10 +6568,8 @@
         <v>50</v>
       </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D215" t="n">
+        <v>2989</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6290,6 +6584,9 @@
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
+      <c r="J215" s="2" t="n">
+        <v>43274</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6301,10 +6598,8 @@
       <c r="C216" t="n">
         <v>300</v>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D216" t="n">
+        <v>2989</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6321,6 +6616,9 @@
       <c r="I216" t="n">
         <v>697</v>
       </c>
+      <c r="J216" s="2" t="n">
+        <v>43273</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6332,10 +6630,8 @@
         <v>222</v>
       </c>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D217" t="n">
+        <v>2989</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6350,6 +6646,9 @@
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
+      <c r="J217" s="2" t="n">
+        <v>43272</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6361,10 +6660,8 @@
         <v>50</v>
       </c>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D218" t="n">
+        <v>2989</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6379,6 +6676,9 @@
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
+      <c r="J218" s="2" t="n">
+        <v>43272</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6390,10 +6690,8 @@
         <v>50</v>
       </c>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D219" t="n">
+        <v>2989</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6408,6 +6706,9 @@
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
+      <c r="J219" s="2" t="n">
+        <v>43272</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6419,10 +6720,8 @@
         <v>50</v>
       </c>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D220" t="n">
+        <v>2989</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6437,6 +6736,9 @@
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
+      <c r="J220" s="2" t="n">
+        <v>43271</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6448,10 +6750,8 @@
         <v>400</v>
       </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D221" t="n">
+        <v>2989</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6466,6 +6766,9 @@
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
+      <c r="J221" s="2" t="n">
+        <v>43271</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6477,10 +6780,8 @@
         <v>290</v>
       </c>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D222" t="n">
+        <v>2989</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6495,6 +6796,9 @@
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
+      <c r="J222" s="2" t="n">
+        <v>43270</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6506,10 +6810,8 @@
         <v>529</v>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D223" t="n">
+        <v>2989</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6524,6 +6826,9 @@
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
+      <c r="J223" s="2" t="n">
+        <v>43268</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6535,10 +6840,8 @@
         <v>42</v>
       </c>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D224" t="n">
+        <v>2989</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
@@ -6551,6 +6854,9 @@
       <c r="I224" t="n">
         <v>3250</v>
       </c>
+      <c r="J224" s="2" t="n">
+        <v>43268</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6562,10 +6868,8 @@
         <v>800</v>
       </c>
       <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D225" t="n">
+        <v>2989</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6580,6 +6884,9 @@
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
+      <c r="J225" s="2" t="n">
+        <v>43268</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6591,10 +6898,8 @@
         <v>1000</v>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D226" t="n">
+        <v>2989</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
@@ -6605,6 +6910,9 @@
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
+      <c r="J226" s="2" t="n">
+        <v>43268</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6616,10 +6924,8 @@
         <v>50</v>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D227" t="n">
+        <v>2989</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6634,6 +6940,9 @@
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
+      <c r="J227" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6645,10 +6954,8 @@
         <v>1000</v>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D228" t="n">
+        <v>2989</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6665,6 +6972,9 @@
       <c r="I228" t="n">
         <v>5142</v>
       </c>
+      <c r="J228" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6676,10 +6986,8 @@
         <v>1000</v>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D229" t="n">
+        <v>2989</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6694,6 +7002,9 @@
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
+      <c r="J229" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6705,10 +7016,8 @@
         <v>1000</v>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D230" t="n">
+        <v>2989</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6725,6 +7034,9 @@
       <c r="I230" t="n">
         <v>6142</v>
       </c>
+      <c r="J230" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6736,10 +7048,8 @@
         <v>1000</v>
       </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D231" t="n">
+        <v>2989</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6756,6 +7066,9 @@
       <c r="I231" t="n">
         <v>6142</v>
       </c>
+      <c r="J231" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6767,10 +7080,8 @@
         <v>1000</v>
       </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D232" t="n">
+        <v>2989</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6785,6 +7096,9 @@
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
+      <c r="J232" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6796,10 +7110,8 @@
         <v>100</v>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D233" t="n">
+        <v>2989</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6816,6 +7128,9 @@
       <c r="I233" t="n">
         <v>8142</v>
       </c>
+      <c r="J233" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6827,10 +7142,8 @@
         <v>100</v>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D234" t="n">
+        <v>2989</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6845,6 +7158,9 @@
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
+      <c r="J234" s="2" t="n">
+        <v>43267</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6856,10 +7172,8 @@
         <v>50</v>
       </c>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D235" t="n">
+        <v>2989</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -6874,6 +7188,9 @@
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
+      <c r="J235" s="2" t="n">
+        <v>43266</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6885,10 +7202,8 @@
         <v>2005.9</v>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D236" t="n">
+        <v>2989</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6905,6 +7220,9 @@
       <c r="I236" t="n">
         <v>8292</v>
       </c>
+      <c r="J236" s="2" t="n">
+        <v>43266</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6916,10 +7234,8 @@
         <v>2000</v>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D237" t="n">
+        <v>2989</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6934,6 +7250,9 @@
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
+      <c r="J237" s="2" t="n">
+        <v>43266</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6945,10 +7264,8 @@
         <v>500</v>
       </c>
       <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D238" t="n">
+        <v>2989</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6963,6 +7280,9 @@
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
+      <c r="J238" s="2" t="n">
+        <v>43265</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6974,10 +7294,8 @@
         <v>405</v>
       </c>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D239" t="n">
+        <v>2989</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6992,6 +7310,9 @@
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
+      <c r="J239" s="2" t="n">
+        <v>43264</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7003,10 +7324,8 @@
         <v>600</v>
       </c>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D240" t="n">
+        <v>2989</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
@@ -7017,6 +7336,9 @@
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
+      <c r="J240" s="2" t="n">
+        <v>43264</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7028,10 +7350,8 @@
         <v>500</v>
       </c>
       <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D241" t="n">
+        <v>2989</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -7046,6 +7366,9 @@
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
+      <c r="J241" s="2" t="n">
+        <v>43264</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7057,10 +7380,8 @@
       <c r="C242" t="n">
         <v>4184</v>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D242" t="n">
+        <v>1846</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
@@ -7071,6 +7392,9 @@
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
+      <c r="J242" s="2" t="n">
+        <v>43263</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7082,10 +7406,8 @@
         <v>4184</v>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D243" t="n">
+        <v>2989</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -7102,6 +7424,9 @@
       <c r="I243" t="n">
         <v>4326</v>
       </c>
+      <c r="J243" s="2" t="n">
+        <v>43262</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7113,10 +7438,8 @@
         <v>700</v>
       </c>
       <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D244" t="n">
+        <v>2989</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
@@ -7127,6 +7450,9 @@
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
+      <c r="J244" s="2" t="n">
+        <v>43261</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7138,10 +7464,8 @@
         <v>3500</v>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D245" t="n">
+        <v>2989</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -7156,6 +7480,9 @@
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
+      <c r="J245" s="2" t="n">
+        <v>43261</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7167,10 +7494,8 @@
         <v>200</v>
       </c>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D246" t="n">
+        <v>2989</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -7187,6 +7512,9 @@
       <c r="I246" t="n">
         <v>16910</v>
       </c>
+      <c r="J246" s="2" t="n">
+        <v>43260</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7198,10 +7526,8 @@
         <v>500</v>
       </c>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D247" t="n">
+        <v>2989</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -7218,6 +7544,9 @@
       <c r="I247" t="n">
         <v>17362</v>
       </c>
+      <c r="J247" s="2" t="n">
+        <v>43259</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7229,10 +7558,8 @@
         <v>299</v>
       </c>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D248" t="n">
+        <v>2989</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
@@ -7245,6 +7572,9 @@
       <c r="I248" t="n">
         <v>17862</v>
       </c>
+      <c r="J248" s="2" t="n">
+        <v>43259</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7256,10 +7586,8 @@
         <v>786</v>
       </c>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D249" t="n">
+        <v>2989</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -7274,6 +7602,9 @@
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
+      <c r="J249" s="2" t="n">
+        <v>43258</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7285,10 +7616,8 @@
       <c r="C250" t="n">
         <v>25</v>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D250" t="n">
+        <v>2989</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
@@ -7301,6 +7630,9 @@
       <c r="I250" t="n">
         <v>18947</v>
       </c>
+      <c r="J250" s="2" t="n">
+        <v>43258</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7312,10 +7644,8 @@
         <v>10000</v>
       </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D251" t="n">
+        <v>2989</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -7332,6 +7662,9 @@
       <c r="I251" t="n">
         <v>1550</v>
       </c>
+      <c r="J251" s="2" t="n">
+        <v>43258</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7343,10 +7676,8 @@
       <c r="C252" t="n">
         <v>10000</v>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D252" t="n">
+        <v>2989</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -7363,6 +7694,9 @@
       <c r="I252" t="n">
         <v>11550</v>
       </c>
+      <c r="J252" s="2" t="n">
+        <v>43258</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7374,10 +7708,8 @@
       <c r="C253" t="n">
         <v>10000</v>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D253" t="n">
+        <v>2989</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7394,6 +7726,9 @@
       <c r="I253" t="n">
         <v>11550</v>
       </c>
+      <c r="J253" s="2" t="n">
+        <v>43258</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7405,10 +7740,8 @@
         <v>222</v>
       </c>
       <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D254" t="n">
+        <v>2989</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -7423,6 +7756,9 @@
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
+      <c r="J254" s="2" t="n">
+        <v>43256</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7434,10 +7770,8 @@
       <c r="C255" t="n">
         <v>41</v>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D255" t="n">
+        <v>2989</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7454,6 +7788,9 @@
       <c r="I255" t="n">
         <v>1872</v>
       </c>
+      <c r="J255" s="2" t="n">
+        <v>43256</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7465,10 +7802,8 @@
         <v>500</v>
       </c>
       <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D256" t="n">
+        <v>2989</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7483,6 +7818,9 @@
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
+      <c r="J256" s="2" t="n">
+        <v>43254</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7494,10 +7832,8 @@
         <v>372</v>
       </c>
       <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D257" t="n">
+        <v>2989</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7512,6 +7848,9 @@
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
+      <c r="J257" s="2" t="n">
+        <v>43254</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7523,10 +7862,8 @@
         <v>600</v>
       </c>
       <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D258" t="n">
+        <v>2989</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -7541,6 +7878,9 @@
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
+      <c r="J258" s="2" t="n">
+        <v>43254</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7552,10 +7892,8 @@
         <v>1000</v>
       </c>
       <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D259" t="n">
+        <v>2989</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -7572,6 +7910,9 @@
       <c r="I259" t="n">
         <v>3858</v>
       </c>
+      <c r="J259" s="2" t="n">
+        <v>43253</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7583,10 +7924,8 @@
       <c r="C260" t="n">
         <v>200</v>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D260" t="n">
+        <v>1184</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -7601,6 +7940,9 @@
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
+      <c r="J260" s="2" t="n">
+        <v>43253</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7612,10 +7954,8 @@
         <v>200</v>
       </c>
       <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D261" t="n">
+        <v>2989</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -7630,6 +7970,9 @@
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
+      <c r="J261" s="2" t="n">
+        <v>43253</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7641,10 +7984,8 @@
         <v>118</v>
       </c>
       <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D262" t="n">
+        <v>2989</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -7659,6 +8000,9 @@
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
+      <c r="J262" s="2" t="n">
+        <v>43252</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7670,10 +8014,8 @@
         <v>222</v>
       </c>
       <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D263" t="n">
+        <v>2989</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -7688,6 +8030,9 @@
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
+      <c r="J263" s="2" t="n">
+        <v>43252</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7699,10 +8044,8 @@
         <v>500</v>
       </c>
       <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D264" t="n">
+        <v>2989</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -7717,6 +8060,9 @@
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
+      <c r="J264" s="2" t="n">
+        <v>43252</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7728,10 +8074,8 @@
         <v>17.7</v>
       </c>
       <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D265" t="n">
+        <v>1184</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
@@ -7742,6 +8086,9 @@
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
+      <c r="J265" s="2" t="n">
+        <v>43252</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7753,10 +8100,8 @@
         <v>50</v>
       </c>
       <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D266" t="n">
+        <v>2989</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -7771,6 +8116,9 @@
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
+      <c r="J266" s="2" t="n">
+        <v>43249</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7782,10 +8130,8 @@
         <v>8182</v>
       </c>
       <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D267" t="n">
+        <v>2989</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -7802,6 +8148,9 @@
       <c r="I267" t="n">
         <v>807</v>
       </c>
+      <c r="J267" s="2" t="n">
+        <v>43249</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7813,10 +8162,8 @@
       <c r="C268" t="n">
         <v>9582</v>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D268" t="n">
+        <v>2989</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -7833,6 +8180,9 @@
       <c r="I268" t="n">
         <v>9589</v>
       </c>
+      <c r="J268" s="2" t="n">
+        <v>43248</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7844,10 +8194,8 @@
         <v>300</v>
       </c>
       <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D269" t="n">
+        <v>2989</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -7864,6 +8212,9 @@
       <c r="I269" t="n">
         <v>7</v>
       </c>
+      <c r="J269" s="2" t="n">
+        <v>43248</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7875,10 +8226,8 @@
         <v>300</v>
       </c>
       <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D270" t="n">
+        <v>2989</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -7893,6 +8242,9 @@
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
+      <c r="J270" s="2" t="n">
+        <v>43248</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7904,10 +8256,8 @@
         <v>270</v>
       </c>
       <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D271" t="n">
+        <v>2989</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -7922,6 +8272,9 @@
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
+      <c r="J271" s="2" t="n">
+        <v>43247</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7933,10 +8286,8 @@
         <v>700</v>
       </c>
       <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D272" t="n">
+        <v>2989</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
@@ -7947,6 +8298,9 @@
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
+      <c r="J272" s="2" t="n">
+        <v>43247</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7958,10 +8312,8 @@
         <v>43</v>
       </c>
       <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D273" t="n">
+        <v>2989</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
@@ -7974,6 +8326,9 @@
       <c r="I273" t="n">
         <v>977</v>
       </c>
+      <c r="J273" s="2" t="n">
+        <v>43247</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7985,10 +8340,8 @@
         <v>500</v>
       </c>
       <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D274" t="n">
+        <v>2989</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
@@ -7999,6 +8352,9 @@
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
+      <c r="J274" s="2" t="n">
+        <v>43247</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8010,10 +8366,8 @@
         <v>480</v>
       </c>
       <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D275" t="n">
+        <v>2989</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -8028,6 +8382,9 @@
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
+      <c r="J275" s="2" t="n">
+        <v>43246</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8039,10 +8396,8 @@
         <v>1700</v>
       </c>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D276" t="n">
+        <v>2989</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -8057,6 +8412,9 @@
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
+      <c r="J276" s="2" t="n">
+        <v>43246</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8068,10 +8426,8 @@
         <v>600</v>
       </c>
       <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D277" t="n">
+        <v>2989</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -8088,6 +8444,9 @@
       <c r="I277" t="n">
         <v>4226</v>
       </c>
+      <c r="J277" s="2" t="n">
+        <v>43246</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8099,10 +8458,8 @@
         <v>600</v>
       </c>
       <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D278" t="n">
+        <v>2989</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -8117,6 +8474,9 @@
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
+      <c r="J278" s="2" t="n">
+        <v>43246</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8128,10 +8488,8 @@
         <v>824</v>
       </c>
       <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D279" t="n">
+        <v>2989</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -8146,6 +8504,9 @@
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
+      <c r="J279" s="2" t="n">
+        <v>43245</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8157,10 +8518,8 @@
       <c r="C280" t="n">
         <v>1000</v>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D280" t="n">
+        <v>2989</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -8177,6 +8536,9 @@
       <c r="I280" t="n">
         <v>5650</v>
       </c>
+      <c r="J280" s="2" t="n">
+        <v>43245</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8188,10 +8550,8 @@
         <v>17.53</v>
       </c>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D281" t="n">
+        <v>2989</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
@@ -8203,6 +8563,9 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
         <v>4650</v>
+      </c>
+      <c r="J281" s="2" t="n">
+        <v>43245</v>
       </c>
     </row>
     <row r="282">
@@ -8225,6 +8588,9 @@
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
+      <c r="J282" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8236,10 +8602,8 @@
         <v>130</v>
       </c>
       <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D283" t="n">
+        <v>2989</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -8254,6 +8618,9 @@
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
+      <c r="J283" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8265,10 +8632,8 @@
         <v>800</v>
       </c>
       <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D284" t="n">
+        <v>2989</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -8285,6 +8650,9 @@
       <c r="I284" t="n">
         <v>6797</v>
       </c>
+      <c r="J284" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8296,10 +8664,8 @@
         <v>800</v>
       </c>
       <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D285" t="n">
+        <v>2989</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -8314,6 +8680,9 @@
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
+      <c r="J285" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8325,10 +8694,8 @@
         <v>4005.9</v>
       </c>
       <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D286" t="n">
+        <v>2989</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -8345,6 +8712,9 @@
       <c r="I286" t="n">
         <v>6287</v>
       </c>
+      <c r="J286" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8356,10 +8726,8 @@
         <v>4000</v>
       </c>
       <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D287" t="n">
+        <v>2989</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -8374,6 +8742,9 @@
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
+      <c r="J287" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8385,10 +8756,8 @@
         <v>10000</v>
       </c>
       <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D288" t="n">
+        <v>2989</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -8405,6 +8774,9 @@
       <c r="I288" t="n">
         <v>10293</v>
       </c>
+      <c r="J288" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8416,10 +8788,8 @@
       <c r="C289" t="n">
         <v>20000</v>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D289" t="n">
+        <v>2989</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -8436,6 +8806,9 @@
       <c r="I289" t="n">
         <v>20293</v>
       </c>
+      <c r="J289" s="2" t="n">
+        <v>43244</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8447,10 +8820,8 @@
         <v>50</v>
       </c>
       <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D290" t="n">
+        <v>2989</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -8465,6 +8836,9 @@
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
+      <c r="J290" s="2" t="n">
+        <v>43243</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8476,10 +8850,8 @@
         <v>100</v>
       </c>
       <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D291" t="n">
+        <v>2989</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -8496,6 +8868,9 @@
       <c r="I291" t="n">
         <v>756</v>
       </c>
+      <c r="J291" s="2" t="n">
+        <v>43242</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8507,10 +8882,8 @@
         <v>168</v>
       </c>
       <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D292" t="n">
+        <v>2989</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -8525,6 +8898,9 @@
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
+      <c r="J292" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8536,10 +8912,8 @@
         <v>582</v>
       </c>
       <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D293" t="n">
+        <v>2989</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -8554,6 +8928,9 @@
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
+      <c r="J293" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8565,10 +8942,8 @@
       <c r="C294" t="n">
         <v>1</v>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D294" t="n">
+        <v>2989</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
@@ -8581,6 +8956,9 @@
       <c r="I294" t="n">
         <v>1606</v>
       </c>
+      <c r="J294" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8592,10 +8970,8 @@
         <v>50</v>
       </c>
       <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D295" t="n">
+        <v>2989</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -8610,6 +8986,9 @@
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
+      <c r="J295" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8621,10 +9000,8 @@
       <c r="C296" t="n">
         <v>1600</v>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D296" t="n">
+        <v>2989</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -8641,6 +9018,9 @@
       <c r="I296" t="n">
         <v>1655</v>
       </c>
+      <c r="J296" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8666,6 +9046,9 @@
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
+      <c r="J297" s="2" t="n">
+        <v>43241</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8677,10 +9060,8 @@
       <c r="C298" t="n">
         <v>2000</v>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D298" t="n">
+        <v>2989</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -8696,6 +9077,9 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
         <v>2055</v>
+      </c>
+      <c r="J298" s="2" t="n">
+        <v>43240</v>
       </c>
     </row>
     <row r="299">
@@ -8721,6 +9105,9 @@
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
+      <c r="J299" s="2" t="n">
+        <v>43239</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8732,10 +9119,8 @@
       <c r="C300" t="n">
         <v>2000</v>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D300" t="n">
+        <v>2989</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -8752,6 +9137,9 @@
       <c r="I300" t="n">
         <v>2055</v>
       </c>
+      <c r="J300" s="2" t="n">
+        <v>43239</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8763,10 +9151,8 @@
       <c r="C301" t="n">
         <v>6600</v>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D301" t="n">
+        <v>1184</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -8781,6 +9167,9 @@
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
+      <c r="J301" s="2" t="n">
+        <v>43235</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8806,6 +9195,9 @@
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
+      <c r="J302" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8817,10 +9209,8 @@
         <v>900</v>
       </c>
       <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D303" t="n">
+        <v>2989</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -8837,6 +9227,9 @@
       <c r="I303" t="n">
         <v>6661</v>
       </c>
+      <c r="J303" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8848,10 +9241,8 @@
       <c r="C304" t="n">
         <v>900</v>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D304" t="n">
+        <v>1184</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -8866,6 +9257,9 @@
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
+      <c r="J304" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8877,10 +9271,8 @@
         <v>500</v>
       </c>
       <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D305" t="n">
+        <v>2989</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -8895,6 +9287,9 @@
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
+      <c r="J305" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8906,10 +9301,8 @@
       <c r="C306" t="n">
         <v>500</v>
       </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D306" t="n">
+        <v>1184</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -8924,6 +9317,9 @@
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
+      <c r="J306" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8935,10 +9331,8 @@
         <v>5005.9</v>
       </c>
       <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D307" t="n">
+        <v>2989</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -8955,6 +9349,9 @@
       <c r="I307" t="n">
         <v>8061</v>
       </c>
+      <c r="J307" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8966,10 +9363,8 @@
         <v>5000</v>
       </c>
       <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D308" t="n">
+        <v>2989</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -8984,6 +9379,9 @@
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
+      <c r="J308" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8995,10 +9393,8 @@
       <c r="C309" t="n">
         <v>5000</v>
       </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D309" t="n">
+        <v>1184</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -9013,6 +9409,9 @@
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
+      <c r="J309" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9024,10 +9423,8 @@
         <v>850</v>
       </c>
       <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D310" t="n">
+        <v>2989</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -9042,6 +9439,9 @@
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
+      <c r="J310" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9053,10 +9453,8 @@
       <c r="C311" t="n">
         <v>850</v>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D311" t="n">
+        <v>1184</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -9071,6 +9469,9 @@
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
+      <c r="J311" s="2" t="n">
+        <v>43234</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9082,10 +9483,8 @@
         <v>1505.9</v>
       </c>
       <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D312" t="n">
+        <v>2989</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -9102,6 +9501,9 @@
       <c r="I312" t="n">
         <v>8917</v>
       </c>
+      <c r="J312" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9113,10 +9515,8 @@
         <v>1500</v>
       </c>
       <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D313" t="n">
+        <v>2989</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -9131,6 +9531,9 @@
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
+      <c r="J313" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9142,10 +9545,8 @@
       <c r="C314" t="n">
         <v>1500</v>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D314" t="n">
+        <v>1184</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -9160,6 +9561,9 @@
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
+      <c r="J314" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9186,6 +9590,9 @@
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
+      <c r="J315" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9197,10 +9604,8 @@
         <v>26</v>
       </c>
       <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D316" t="n">
+        <v>2989</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -9217,6 +9622,9 @@
       <c r="I316" t="n">
         <v>10423</v>
       </c>
+      <c r="J316" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9228,10 +9636,8 @@
         <v>49</v>
       </c>
       <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D317" t="n">
+        <v>2989</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -9248,6 +9654,9 @@
       <c r="I317" t="n">
         <v>10423</v>
       </c>
+      <c r="J317" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9259,10 +9668,8 @@
         <v>900</v>
       </c>
       <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D318" t="n">
+        <v>1184</v>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
@@ -9275,6 +9682,9 @@
       <c r="I318" t="n">
         <v>55</v>
       </c>
+      <c r="J318" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9286,10 +9696,8 @@
         <v>26</v>
       </c>
       <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D319" t="n">
+        <v>2989</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -9306,6 +9714,9 @@
       <c r="I319" t="n">
         <v>10498</v>
       </c>
+      <c r="J319" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9317,10 +9728,8 @@
         <v>49</v>
       </c>
       <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D320" t="n">
+        <v>2989</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -9337,6 +9746,9 @@
       <c r="I320" t="n">
         <v>10524</v>
       </c>
+      <c r="J320" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9348,10 +9760,8 @@
       <c r="C321" t="n">
         <v>923.6</v>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D321" t="n">
+        <v>1184</v>
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
@@ -9362,6 +9772,9 @@
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
+      <c r="J321" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9373,10 +9786,8 @@
         <v>900</v>
       </c>
       <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D322" t="n">
+        <v>1184</v>
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
@@ -9389,6 +9800,9 @@
       <c r="I322" t="n">
         <v>121</v>
       </c>
+      <c r="J322" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9400,10 +9814,8 @@
         <v>1000</v>
       </c>
       <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D323" t="n">
+        <v>2989</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -9420,6 +9832,9 @@
       <c r="I323" t="n">
         <v>10573</v>
       </c>
+      <c r="J323" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9431,10 +9846,8 @@
         <v>1000</v>
       </c>
       <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D324" t="n">
+        <v>2989</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -9449,6 +9862,9 @@
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
+      <c r="J324" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9460,10 +9876,8 @@
       <c r="C325" t="n">
         <v>450</v>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D325" t="n">
+        <v>1184</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -9478,6 +9892,9 @@
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
+      <c r="J325" s="2" t="n">
+        <v>43233</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9489,10 +9906,8 @@
         <v>600</v>
       </c>
       <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D326" t="n">
+        <v>1184</v>
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
@@ -9505,6 +9920,9 @@
       <c r="I326" t="n">
         <v>52</v>
       </c>
+      <c r="J326" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9516,10 +9934,8 @@
         <v>400</v>
       </c>
       <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D327" t="n">
+        <v>2989</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -9536,6 +9952,9 @@
       <c r="I327" t="n">
         <v>12023</v>
       </c>
+      <c r="J327" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9547,10 +9966,8 @@
         <v>400</v>
       </c>
       <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D328" t="n">
+        <v>2989</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -9565,6 +9982,9 @@
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
+      <c r="J328" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9576,10 +9996,8 @@
         <v>40</v>
       </c>
       <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D329" t="n">
+        <v>2989</v>
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
@@ -9592,6 +10010,9 @@
       <c r="I329" t="n">
         <v>12423</v>
       </c>
+      <c r="J329" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9603,10 +10024,8 @@
         <v>7.2</v>
       </c>
       <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D330" t="n">
+        <v>2989</v>
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
@@ -9619,6 +10038,9 @@
       <c r="I330" t="n">
         <v>12423</v>
       </c>
+      <c r="J330" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9630,10 +10052,8 @@
         <v>500</v>
       </c>
       <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D331" t="n">
+        <v>2989</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -9650,6 +10070,9 @@
       <c r="I331" t="n">
         <v>12470</v>
       </c>
+      <c r="J331" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9661,10 +10084,8 @@
         <v>500</v>
       </c>
       <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D332" t="n">
+        <v>1184</v>
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
@@ -9677,6 +10098,9 @@
       <c r="I332" t="n">
         <v>252</v>
       </c>
+      <c r="J332" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9688,10 +10112,8 @@
       <c r="C333" t="n">
         <v>500</v>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D333" t="n">
+        <v>1184</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -9706,6 +10128,9 @@
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
+      <c r="J333" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9717,10 +10142,8 @@
         <v>550</v>
       </c>
       <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D334" t="n">
+        <v>2989</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -9737,6 +10160,9 @@
       <c r="I334" t="n">
         <v>12970</v>
       </c>
+      <c r="J334" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9748,10 +10174,8 @@
         <v>550</v>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D335" t="n">
+        <v>2989</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -9766,6 +10190,9 @@
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
+      <c r="J335" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9777,10 +10204,8 @@
       <c r="C336" t="n">
         <v>550</v>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D336" t="n">
+        <v>1184</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -9795,6 +10220,9 @@
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
+      <c r="J336" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9806,10 +10234,8 @@
       <c r="C337" t="n">
         <v>200</v>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D337" t="n">
+        <v>1184</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -9824,6 +10250,9 @@
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
+      <c r="J337" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9835,10 +10264,8 @@
         <v>850</v>
       </c>
       <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D338" t="n">
+        <v>2989</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -9855,6 +10282,9 @@
       <c r="I338" t="n">
         <v>13720</v>
       </c>
+      <c r="J338" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9866,10 +10296,8 @@
       <c r="C339" t="n">
         <v>850</v>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D339" t="n">
+        <v>1184</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -9884,6 +10312,9 @@
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
+      <c r="J339" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9895,10 +10326,8 @@
       <c r="C340" t="n">
         <v>10000</v>
       </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D340" t="n">
+        <v>2989</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -9915,6 +10344,9 @@
       <c r="I340" t="n">
         <v>14570</v>
       </c>
+      <c r="J340" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9926,10 +10358,8 @@
       <c r="C341" t="n">
         <v>150</v>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D341" t="n">
+        <v>1184</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -9944,6 +10374,9 @@
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
+      <c r="J341" s="2" t="n">
+        <v>43232</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9955,10 +10388,8 @@
         <v>2205.9</v>
       </c>
       <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D342" t="n">
+        <v>2989</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -9975,6 +10406,9 @@
       <c r="I342" t="n">
         <v>4720</v>
       </c>
+      <c r="J342" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9986,10 +10420,8 @@
         <v>2200</v>
       </c>
       <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D343" t="n">
+        <v>2989</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -10004,6 +10436,9 @@
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
+      <c r="J343" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10015,10 +10450,8 @@
       <c r="C344" t="n">
         <v>2200</v>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D344" t="n">
+        <v>1184</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -10033,6 +10466,9 @@
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
+      <c r="J344" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10044,10 +10480,8 @@
         <v>174.95</v>
       </c>
       <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D345" t="n">
+        <v>2989</v>
       </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
@@ -10060,6 +10494,9 @@
       <c r="I345" t="n">
         <v>4689</v>
       </c>
+      <c r="J345" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10071,10 +10508,8 @@
       <c r="C346" t="n">
         <v>4184</v>
       </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D346" t="n">
+        <v>1846</v>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
@@ -10085,6 +10520,9 @@
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
+      <c r="J346" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10096,10 +10534,8 @@
         <v>200</v>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D347" t="n">
+        <v>2989</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -10114,6 +10550,9 @@
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
+      <c r="J347" s="2" t="n">
+        <v>43231</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10125,10 +10564,8 @@
       <c r="C348" t="n">
         <v>500</v>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D348" t="n">
+        <v>1184</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -10143,6 +10580,9 @@
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
+      <c r="J348" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10154,10 +10594,8 @@
         <v>700</v>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D349" t="n">
+        <v>2989</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -10172,6 +10610,9 @@
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
+      <c r="J349" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10183,10 +10624,8 @@
       <c r="C350" t="n">
         <v>1000</v>
       </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D350" t="n">
+        <v>2989</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -10203,6 +10642,9 @@
       <c r="I350" t="n">
         <v>10448</v>
       </c>
+      <c r="J350" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10214,10 +10656,8 @@
         <v>500</v>
       </c>
       <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D351" t="n">
+        <v>2989</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -10234,6 +10674,9 @@
       <c r="I351" t="n">
         <v>10448</v>
       </c>
+      <c r="J351" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10245,10 +10688,8 @@
         <v>150</v>
       </c>
       <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D352" t="n">
+        <v>2989</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -10265,6 +10706,9 @@
       <c r="I352" t="n">
         <v>10448</v>
       </c>
+      <c r="J352" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10276,10 +10720,8 @@
       <c r="C353" t="n">
         <v>200</v>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D353" t="n">
+        <v>2989</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -10296,6 +10738,9 @@
       <c r="I353" t="n">
         <v>10448</v>
       </c>
+      <c r="J353" s="2" t="n">
+        <v>43230</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10307,10 +10752,8 @@
         <v>600</v>
       </c>
       <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D354" t="n">
+        <v>2989</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -10325,6 +10768,9 @@
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
+      <c r="J354" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10336,10 +10782,8 @@
       <c r="C355" t="n">
         <v>600</v>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D355" t="n">
+        <v>1184</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -10354,6 +10798,9 @@
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
+      <c r="J355" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10377,6 +10824,9 @@
         </is>
       </c>
       <c r="I356" t="inlineStr"/>
+      <c r="J356" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10404,6 +10854,9 @@
         </is>
       </c>
       <c r="I357" t="inlineStr"/>
+      <c r="J357" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10415,10 +10868,8 @@
         <v>40</v>
       </c>
       <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D358" t="n">
+        <v>2989</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -10435,6 +10886,9 @@
       <c r="I358" t="n">
         <v>11048</v>
       </c>
+      <c r="J358" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10444,10 +10898,8 @@
       </c>
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D359" t="n">
+        <v>1846</v>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
@@ -10458,6 +10910,9 @@
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
+      <c r="J359" s="2" t="n">
+        <v>43229</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10481,6 +10936,9 @@
         </is>
       </c>
       <c r="I360" t="inlineStr"/>
+      <c r="J360" s="2" t="n">
+        <v>43227</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10492,10 +10950,8 @@
       <c r="C361" t="n">
         <v>11067</v>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D361" t="n">
+        <v>2989</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -10512,6 +10968,9 @@
       <c r="I361" t="n">
         <v>11088</v>
       </c>
+      <c r="J361" s="2" t="n">
+        <v>43227</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10523,10 +10982,8 @@
         <v>22</v>
       </c>
       <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D362" t="n">
+        <v>2989</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -10543,6 +11000,9 @@
       <c r="I362" t="n">
         <v>21</v>
       </c>
+      <c r="J362" s="2" t="n">
+        <v>43226</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10554,10 +11014,8 @@
         <v>1</v>
       </c>
       <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D363" t="n">
+        <v>2989</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -10572,6 +11030,9 @@
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
+      <c r="J363" s="2" t="n">
+        <v>43226</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10595,6 +11056,9 @@
         </is>
       </c>
       <c r="I364" t="inlineStr"/>
+      <c r="J364" s="2" t="n">
+        <v>43226</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10606,10 +11070,8 @@
         <v>40</v>
       </c>
       <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D365" t="n">
+        <v>2989</v>
       </c>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr"/>
@@ -10622,6 +11084,9 @@
       <c r="I365" t="n">
         <v>44</v>
       </c>
+      <c r="J365" s="2" t="n">
+        <v>43226</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10631,10 +11096,8 @@
       </c>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>003702241846</t>
-        </is>
+      <c r="D366" t="n">
+        <v>1846</v>
       </c>
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="n">
@@ -10647,6 +11110,9 @@
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
+      <c r="J366" s="2" t="n">
+        <v>43225</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10658,10 +11124,8 @@
       <c r="C367" t="n">
         <v>2000</v>
       </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D367" t="n">
+        <v>2989</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -10678,6 +11142,9 @@
       <c r="I367" t="n">
         <v>84</v>
       </c>
+      <c r="J367" s="2" t="n">
+        <v>43224</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10689,10 +11156,8 @@
         <v>2000</v>
       </c>
       <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D368" t="n">
+        <v>2989</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -10707,6 +11172,9 @@
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
+      <c r="J368" s="2" t="n">
+        <v>43224</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10718,10 +11186,8 @@
         <v>7000</v>
       </c>
       <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D369" t="n">
+        <v>2989</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -10738,6 +11204,9 @@
       <c r="I369" t="n">
         <v>90</v>
       </c>
+      <c r="J369" s="2" t="n">
+        <v>43224</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10749,10 +11218,8 @@
         <v>2500</v>
       </c>
       <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D370" t="n">
+        <v>1184</v>
       </c>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr"/>
@@ -10765,6 +11232,9 @@
       <c r="I370" t="n">
         <v>10</v>
       </c>
+      <c r="J370" s="2" t="n">
+        <v>43223</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10776,10 +11246,8 @@
         <v>2505.9</v>
       </c>
       <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D371" t="n">
+        <v>2989</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -10796,6 +11264,9 @@
       <c r="I371" t="n">
         <v>7090</v>
       </c>
+      <c r="J371" s="2" t="n">
+        <v>43223</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10807,10 +11278,8 @@
       <c r="C372" t="n">
         <v>2500</v>
       </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D372" t="n">
+        <v>1184</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -10825,6 +11294,9 @@
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
+      <c r="J372" s="2" t="n">
+        <v>43223</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10836,10 +11308,8 @@
       <c r="C373" t="n">
         <v>9582</v>
       </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D373" t="n">
+        <v>2989</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -10856,6 +11326,9 @@
       <c r="I373" t="n">
         <v>9596</v>
       </c>
+      <c r="J373" s="2" t="n">
+        <v>43223</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10867,10 +11340,8 @@
         <v>505</v>
       </c>
       <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D374" t="n">
+        <v>2989</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -10885,6 +11356,9 @@
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
+      <c r="J374" s="2" t="n">
+        <v>43222</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10896,10 +11370,8 @@
         <v>24.29</v>
       </c>
       <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D375" t="n">
+        <v>2989</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -10914,6 +11386,9 @@
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
+      <c r="J375" s="2" t="n">
+        <v>43222</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10925,10 +11400,8 @@
         <v>20</v>
       </c>
       <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D376" t="n">
+        <v>2989</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -10943,6 +11416,9 @@
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
+      <c r="J376" s="2" t="n">
+        <v>43222</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10954,10 +11430,8 @@
         <v>143</v>
       </c>
       <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D377" t="n">
+        <v>2989</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -10972,6 +11446,9 @@
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
+      <c r="J377" s="2" t="n">
+        <v>43221</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10983,10 +11460,8 @@
         <v>110</v>
       </c>
       <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D378" t="n">
+        <v>2989</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -11001,6 +11476,9 @@
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
+      <c r="J378" s="2" t="n">
+        <v>43221</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11012,10 +11490,8 @@
         <v>17.7</v>
       </c>
       <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D379" t="n">
+        <v>1184</v>
       </c>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
@@ -11026,6 +11502,9 @@
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
+      <c r="J379" s="2" t="n">
+        <v>43221</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11047,6 +11526,9 @@
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
+      <c r="J380" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11058,10 +11540,8 @@
         <v>5000</v>
       </c>
       <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D381" t="n">
+        <v>2989</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -11078,6 +11558,9 @@
       <c r="I381" t="n">
         <v>816</v>
       </c>
+      <c r="J381" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11089,10 +11572,8 @@
       <c r="C382" t="n">
         <v>5000</v>
       </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D382" t="n">
+        <v>2989</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -11109,6 +11590,9 @@
       <c r="I382" t="n">
         <v>5816</v>
       </c>
+      <c r="J382" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11120,10 +11604,8 @@
         <v>500</v>
       </c>
       <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D383" t="n">
+        <v>1184</v>
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
@@ -11135,6 +11617,9 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="n">
         <v>23</v>
+      </c>
+      <c r="J383" s="2" t="n">
+        <v>43220</v>
       </c>
     </row>
     <row r="384">
@@ -11155,6 +11640,9 @@
       </c>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
+      <c r="J384" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11166,10 +11654,8 @@
         <v>300</v>
       </c>
       <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D385" t="n">
+        <v>2989</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -11186,6 +11672,9 @@
       <c r="I385" t="n">
         <v>816</v>
       </c>
+      <c r="J385" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11197,10 +11686,8 @@
         <v>200</v>
       </c>
       <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D386" t="n">
+        <v>2989</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -11215,6 +11702,9 @@
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
+      <c r="J386" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11226,10 +11716,8 @@
         <v>300</v>
       </c>
       <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D387" t="n">
+        <v>2989</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -11244,6 +11732,9 @@
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
+      <c r="J387" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11255,10 +11746,8 @@
       <c r="C388" t="n">
         <v>200</v>
       </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D388" t="n">
+        <v>1184</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -11273,6 +11762,9 @@
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
+      <c r="J388" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11284,10 +11776,8 @@
       <c r="C389" t="n">
         <v>300</v>
       </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D389" t="n">
+        <v>1184</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -11302,6 +11792,9 @@
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
+      <c r="J389" s="2" t="n">
+        <v>43220</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11313,10 +11806,8 @@
         <v>5000</v>
       </c>
       <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D390" t="n">
+        <v>2989</v>
       </c>
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr"/>
@@ -11327,6 +11818,9 @@
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
+      <c r="J390" s="2" t="n">
+        <v>43219</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11346,6 +11840,9 @@
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
+      <c r="J391" s="2" t="n">
+        <v>43219</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11357,10 +11854,8 @@
         <v>1000</v>
       </c>
       <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D392" t="n">
+        <v>2989</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -11375,6 +11870,9 @@
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
+      <c r="J392" s="2" t="n">
+        <v>43218</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11394,6 +11892,9 @@
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
+      <c r="J393" s="2" t="n">
+        <v>43218</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11405,10 +11906,8 @@
         <v>100</v>
       </c>
       <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D394" t="n">
+        <v>2989</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -11423,6 +11922,9 @@
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
+      <c r="J394" s="2" t="n">
+        <v>43212</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11434,10 +11936,8 @@
       <c r="C395" t="n">
         <v>1</v>
       </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D395" t="n">
+        <v>2989</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -11454,6 +11954,9 @@
       <c r="I395" t="n">
         <v>1096</v>
       </c>
+      <c r="J395" s="2" t="n">
+        <v>43210</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11465,10 +11968,8 @@
       <c r="C396" t="n">
         <v>540</v>
       </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D396" t="n">
+        <v>2989</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -11485,6 +11986,9 @@
       <c r="I396" t="n">
         <v>1135</v>
       </c>
+      <c r="J396" s="2" t="n">
+        <v>43209</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11496,10 +12000,8 @@
         <v>100</v>
       </c>
       <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D397" t="n">
+        <v>2989</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -11516,6 +12018,9 @@
       <c r="I397" t="n">
         <v>5900</v>
       </c>
+      <c r="J397" s="2" t="n">
+        <v>43206</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11527,10 +12032,8 @@
         <v>100</v>
       </c>
       <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D398" t="n">
+        <v>2989</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -11545,6 +12048,9 @@
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
+      <c r="J398" s="2" t="n">
+        <v>43206</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11556,10 +12062,8 @@
       <c r="C399" t="n">
         <v>6000</v>
       </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D399" t="n">
+        <v>2989</v>
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
@@ -11570,6 +12074,9 @@
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
+      <c r="J399" s="2" t="n">
+        <v>43206</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11581,10 +12088,8 @@
         <v>95</v>
       </c>
       <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D400" t="n">
+        <v>2989</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -11601,6 +12106,9 @@
       <c r="I400" t="n">
         <v>0</v>
       </c>
+      <c r="J400" s="2" t="n">
+        <v>43205</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11612,10 +12120,8 @@
         <v>155</v>
       </c>
       <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D401" t="n">
+        <v>2989</v>
       </c>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
@@ -11628,6 +12134,9 @@
       <c r="I401" t="n">
         <v>95</v>
       </c>
+      <c r="J401" s="2" t="n">
+        <v>43204</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11639,10 +12148,8 @@
         <v>500</v>
       </c>
       <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D402" t="n">
+        <v>2989</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -11659,6 +12166,9 @@
       <c r="I402" t="n">
         <v>2206</v>
       </c>
+      <c r="J402" s="2" t="n">
+        <v>43202</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11670,10 +12180,8 @@
         <v>424</v>
       </c>
       <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D403" t="n">
+        <v>2989</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -11688,6 +12196,9 @@
       </c>
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr"/>
+      <c r="J403" s="2" t="n">
+        <v>43201</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11699,10 +12210,8 @@
         <v>1000</v>
       </c>
       <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D404" t="n">
+        <v>2989</v>
       </c>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
@@ -11713,6 +12222,9 @@
       </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr"/>
+      <c r="J404" s="2" t="n">
+        <v>43201</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11724,10 +12236,8 @@
       <c r="C405" t="n">
         <v>20</v>
       </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D405" t="n">
+        <v>2989</v>
       </c>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
@@ -11740,6 +12250,9 @@
       <c r="I405" t="n">
         <v>4282</v>
       </c>
+      <c r="J405" s="2" t="n">
+        <v>43201</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11751,10 +12264,8 @@
         <v>448</v>
       </c>
       <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D406" t="n">
+        <v>2989</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -11769,6 +12280,9 @@
       </c>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr"/>
+      <c r="J406" s="2" t="n">
+        <v>43201</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11780,10 +12294,8 @@
         <v>4184</v>
       </c>
       <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D407" t="n">
+        <v>2989</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -11800,6 +12312,9 @@
       <c r="I407" t="n">
         <v>4863</v>
       </c>
+      <c r="J407" s="2" t="n">
+        <v>43200</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11811,10 +12326,8 @@
         <v>3000</v>
       </c>
       <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D408" t="n">
+        <v>2989</v>
       </c>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
@@ -11825,6 +12338,9 @@
       </c>
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr"/>
+      <c r="J408" s="2" t="n">
+        <v>43200</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11836,10 +12352,8 @@
         <v>1700</v>
       </c>
       <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D409" t="n">
+        <v>2989</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -11854,6 +12368,9 @@
       </c>
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr"/>
+      <c r="J409" s="2" t="n">
+        <v>43199</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11865,10 +12382,8 @@
         <v>200</v>
       </c>
       <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D410" t="n">
+        <v>2989</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -11885,6 +12400,9 @@
       <c r="I410" t="n">
         <v>15253</v>
       </c>
+      <c r="J410" s="2" t="n">
+        <v>43199</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11896,10 +12414,8 @@
         <v>200</v>
       </c>
       <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D411" t="n">
+        <v>2989</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -11914,6 +12430,9 @@
       </c>
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr"/>
+      <c r="J411" s="2" t="n">
+        <v>43199</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11925,10 +12444,8 @@
         <v>1000</v>
       </c>
       <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D412" t="n">
+        <v>2989</v>
       </c>
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
@@ -11939,6 +12456,9 @@
       </c>
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr"/>
+      <c r="J412" s="2" t="n">
+        <v>43198</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11950,10 +12470,8 @@
         <v>199</v>
       </c>
       <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D413" t="n">
+        <v>2989</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -11968,6 +12486,9 @@
       </c>
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr"/>
+      <c r="J413" s="2" t="n">
+        <v>43198</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11979,10 +12500,8 @@
         <v>20</v>
       </c>
       <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D414" t="n">
+        <v>2989</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -11997,6 +12516,9 @@
       </c>
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr"/>
+      <c r="J414" s="2" t="n">
+        <v>43196</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -12008,10 +12530,8 @@
         <v>570</v>
       </c>
       <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D415" t="n">
+        <v>2989</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -12026,6 +12546,9 @@
       </c>
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr"/>
+      <c r="J415" s="2" t="n">
+        <v>43196</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12037,10 +12560,8 @@
       <c r="C416" t="n">
         <v>1.2</v>
       </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D416" t="n">
+        <v>2989</v>
       </c>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
@@ -12053,6 +12574,9 @@
       <c r="I416" t="n">
         <v>1010</v>
       </c>
+      <c r="J416" s="2" t="n">
+        <v>43196</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12064,10 +12588,8 @@
       <c r="C417" t="n">
         <v>3.75</v>
       </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D417" t="n">
+        <v>2989</v>
       </c>
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr"/>
@@ -12080,6 +12602,9 @@
       <c r="I417" t="n">
         <v>1008</v>
       </c>
+      <c r="J417" s="2" t="n">
+        <v>43196</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -12091,10 +12616,8 @@
       <c r="C418" t="n">
         <v>1000</v>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D418" t="n">
+        <v>2989</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -12111,6 +12634,9 @@
       <c r="I418" t="n">
         <v>1005</v>
       </c>
+      <c r="J418" s="2" t="n">
+        <v>43196</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -12122,10 +12648,8 @@
         <v>500</v>
       </c>
       <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D419" t="n">
+        <v>2989</v>
       </c>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr"/>
@@ -12136,6 +12660,9 @@
       </c>
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr"/>
+      <c r="J419" s="2" t="n">
+        <v>43195</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -12147,10 +12674,8 @@
         <v>222</v>
       </c>
       <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D420" t="n">
+        <v>2989</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -12165,6 +12690,9 @@
       </c>
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr"/>
+      <c r="J420" s="2" t="n">
+        <v>43194</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -12176,10 +12704,8 @@
       <c r="C421" t="n">
         <v>1</v>
       </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D421" t="n">
+        <v>2989</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -12196,6 +12722,9 @@
       <c r="I421" t="n">
         <v>727</v>
       </c>
+      <c r="J421" s="2" t="n">
+        <v>43194</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -12207,10 +12736,8 @@
         <v>285</v>
       </c>
       <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D422" t="n">
+        <v>2989</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -12225,6 +12752,9 @@
       </c>
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr"/>
+      <c r="J422" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -12236,10 +12766,8 @@
         <v>199</v>
       </c>
       <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D423" t="n">
+        <v>2989</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -12254,6 +12782,9 @@
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
+      <c r="J423" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12265,10 +12796,8 @@
         <v>458</v>
       </c>
       <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D424" t="n">
+        <v>2989</v>
       </c>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr"/>
@@ -12279,6 +12808,9 @@
       </c>
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr"/>
+      <c r="J424" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -12290,10 +12822,8 @@
         <v>160</v>
       </c>
       <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D425" t="n">
+        <v>2989</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -12308,6 +12838,9 @@
       </c>
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr"/>
+      <c r="J425" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -12319,10 +12852,8 @@
       <c r="C426" t="n">
         <v>117</v>
       </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D426" t="n">
+        <v>2989</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -12339,6 +12870,9 @@
       <c r="I426" t="n">
         <v>3669</v>
       </c>
+      <c r="J426" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -12350,10 +12884,8 @@
         <v>399</v>
       </c>
       <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D427" t="n">
+        <v>2989</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -12368,6 +12900,9 @@
       </c>
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr"/>
+      <c r="J427" s="2" t="n">
+        <v>43191</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -12379,10 +12914,8 @@
         <v>1099</v>
       </c>
       <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D428" t="n">
+        <v>2989</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -12397,6 +12930,9 @@
       </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr"/>
+      <c r="J428" s="2" t="n">
+        <v>43190</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12408,10 +12944,8 @@
         <v>1400</v>
       </c>
       <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D429" t="n">
+        <v>2989</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -12426,6 +12960,9 @@
       </c>
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr"/>
+      <c r="J429" s="2" t="n">
+        <v>43190</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12437,10 +12974,8 @@
         <v>200</v>
       </c>
       <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D430" t="n">
+        <v>2989</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -12457,6 +12992,9 @@
       <c r="I430" t="n">
         <v>6057</v>
       </c>
+      <c r="J430" s="2" t="n">
+        <v>43190</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12468,10 +13006,8 @@
         <v>200</v>
       </c>
       <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D431" t="n">
+        <v>2989</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -12486,6 +13022,9 @@
       </c>
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr"/>
+      <c r="J431" s="2" t="n">
+        <v>43190</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12497,10 +13036,8 @@
         <v>500</v>
       </c>
       <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D432" t="n">
+        <v>2989</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -12515,6 +13052,9 @@
       </c>
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr"/>
+      <c r="J432" s="2" t="n">
+        <v>43189</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12526,10 +13066,8 @@
         <v>300</v>
       </c>
       <c r="C433" t="inlineStr"/>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D433" t="n">
+        <v>2989</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -12544,6 +13082,9 @@
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr"/>
+      <c r="J433" s="2" t="n">
+        <v>43189</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12565,6 +13106,9 @@
       </c>
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr"/>
+      <c r="J434" s="2" t="n">
+        <v>43182</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12586,6 +13130,9 @@
       </c>
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr"/>
+      <c r="J435" s="2" t="n">
+        <v>43182</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12607,6 +13154,9 @@
       </c>
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr"/>
+      <c r="J436" s="2" t="n">
+        <v>43170</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12618,10 +13168,8 @@
         <v>2000</v>
       </c>
       <c r="C437" t="inlineStr"/>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D437" t="n">
+        <v>2989</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -12636,6 +13184,9 @@
       </c>
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr"/>
+      <c r="J437" s="2" t="n">
+        <v>43169</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12645,10 +13196,8 @@
       </c>
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr"/>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>1846</t>
-        </is>
+      <c r="D438" t="n">
+        <v>1846</v>
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="n">
@@ -12661,6 +13210,9 @@
       </c>
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr"/>
+      <c r="J438" s="2" t="n">
+        <v>43168</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12672,10 +13224,8 @@
         <v>600</v>
       </c>
       <c r="C439" t="inlineStr"/>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>2989</t>
-        </is>
+      <c r="D439" t="n">
+        <v>2989</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -12690,6 +13240,9 @@
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
+      <c r="J439" s="2" t="n">
+        <v>43168</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12701,10 +13254,8 @@
       <c r="C440" t="n">
         <v>4000</v>
       </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D440" t="n">
+        <v>2989</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -12720,6 +13271,9 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="n">
         <v>32342</v>
+      </c>
+      <c r="J440" s="2" t="n">
+        <v>43168</v>
       </c>
     </row>
     <row r="441">
@@ -12742,6 +13296,9 @@
       </c>
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr"/>
+      <c r="J441" s="2" t="n">
+        <v>43166</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12753,10 +13310,8 @@
         <v>1305.9</v>
       </c>
       <c r="C442" t="inlineStr"/>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D442" t="n">
+        <v>2989</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -12773,6 +13328,9 @@
       <c r="I442" t="n">
         <v>13392</v>
       </c>
+      <c r="J442" s="2" t="n">
+        <v>43166</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12784,10 +13342,8 @@
         <v>300</v>
       </c>
       <c r="C443" t="inlineStr"/>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>1184</t>
-        </is>
+      <c r="D443" t="n">
+        <v>1184</v>
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -12800,6 +13356,9 @@
       <c r="I443" t="n">
         <v>352</v>
       </c>
+      <c r="J443" s="2" t="n">
+        <v>43165</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12811,10 +13370,8 @@
       <c r="C444" t="n">
         <v>700</v>
       </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>291184</t>
-        </is>
+      <c r="D444" t="n">
+        <v>1184</v>
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
@@ -12825,6 +13382,9 @@
       </c>
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr"/>
+      <c r="J444" s="2" t="n">
+        <v>43165</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12836,10 +13396,8 @@
       <c r="C445" t="n">
         <v>210</v>
       </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D445" t="n">
+        <v>2989</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -12856,6 +13414,9 @@
       <c r="I445" t="n">
         <v>213</v>
       </c>
+      <c r="J445" s="2" t="n">
+        <v>43164</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12867,10 +13428,8 @@
       <c r="C446" t="n">
         <v>700</v>
       </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D446" t="n">
+        <v>2989</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -12887,6 +13446,9 @@
       <c r="I446" t="n">
         <v>703</v>
       </c>
+      <c r="J446" s="2" t="n">
+        <v>43162</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12898,10 +13460,8 @@
         <v>3000</v>
       </c>
       <c r="C447" t="inlineStr"/>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D447" t="n">
+        <v>2989</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -12916,6 +13476,9 @@
       </c>
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr"/>
+      <c r="J447" s="2" t="n">
+        <v>43161</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12927,10 +13490,8 @@
       <c r="C448" t="n">
         <v>2700</v>
       </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D448" t="n">
+        <v>2989</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -12947,6 +13508,9 @@
       <c r="I448" t="n">
         <v>3003</v>
       </c>
+      <c r="J448" s="2" t="n">
+        <v>43161</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12958,10 +13522,8 @@
         <v>3000</v>
       </c>
       <c r="C449" t="inlineStr"/>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D449" t="n">
+        <v>2989</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -12976,6 +13538,9 @@
       </c>
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr"/>
+      <c r="J449" s="2" t="n">
+        <v>43161</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12987,10 +13552,8 @@
       <c r="C450" t="n">
         <v>3000</v>
       </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>302989</t>
-        </is>
+      <c r="D450" t="n">
+        <v>2989</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -13006,6 +13569,9 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="n">
         <v>3003</v>
+      </c>
+      <c r="J450" s="2" t="n">
+        <v>43161</v>
       </c>
     </row>
   </sheetData>
